--- a/ReportDeBugs.xlsx
+++ b/ReportDeBugs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Category</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>requisição para matricula de bolsista 50% campos necessarios em branco</t>
+  </si>
+  <si>
+    <t>Thales Almeida</t>
   </si>
   <si>
     <t>quando faço uma requisição para uma matricula de bolsista 50% varios campos do corpo incorretos</t>
@@ -368,7 +371,7 @@
     <xdr:ext cx="6896100" cy="1095375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -396,7 +399,7 @@
     <xdr:ext cx="6962775" cy="1095375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagem"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1885,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1943,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1971,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2113,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2141,7 +2144,7 @@
         <v>27</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2169,7 +2172,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2227,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2283,7 +2286,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
